--- a/publipostage/03evbwn87/liste_essais_cliniques_identifies_03evbwn87.xlsx
+++ b/publipostage/03evbwn87/liste_essais_cliniques_identifies_03evbwn87.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT01069146</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Mild Therapeutic Hypothermia During Severe Sepsis</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -521,28 +531,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT00349661</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Influence Of Omeprazole On The Anti-Platelet Action Of Clopidogrel Associated To Aspirin: Double-Blind Randomized Trial Against Placebo</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -554,32 +569,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT00295672</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Oral Vinorelbine and Cisplatin and Concurrent Radiotherapy After Induction Chemotherapy With Cisplatin-docetaxel in Patients With Locally Advanced Non-small-cell Lung Cancer. A Multicenter Phase II Trial</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>VINCR</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -591,33 +611,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCT00740844</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NCT01078714</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Evaluation of Intermittent Pneumatic Compression (IPC) of the Lower Limbs Associated With Elastic Stockings (ES) Compared to ES Alone on Venous Thromboembolism Incidence in Patients With High Bleeding Risk Hospitalized in Intensive Medical Care Units</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CIREA1</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
+          <t>Study of the Efficiency of a Treatment by Bumetanide in a Population of Autistic Children</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>BUMEA</t>
+        </is>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -628,33 +653,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT00740935</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT00740844</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Impact of Systematic Infants Vaccination Against Rotavirus on Gastroenteritis Hospitalization: a Prospective Study in Brest District, France.</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>IVANHOE</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
+          <t>Evaluation of Intermittent Pneumatic Compression (IPC) of the Lower Limbs Associated With Elastic Stockings (ES) Compared to ES Alone on Venous Thromboembolism Incidence in Patients With High Bleeding Risk Hospitalized in Intensive Medical Care Units</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CIREA1</t>
+        </is>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -665,32 +695,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NCT01078714</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NCT00740935</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Study of the Efficiency of a Treatment by Bumetanide in a Population of Autistic Children</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>BUMEA</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
+          <t>Impact of Systematic Infants Vaccination Against Rotavirus on Gastroenteritis Hospitalization: a Prospective Study in Brest District, France.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>IVANHOE</t>
+        </is>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -702,32 +737,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>NCT01216488</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Comparison of Axillary Block Under Ultrasound With 40 or 25 ml of Xylocaine 1.5% Adrenalin in Forearm or Arm Surgery.</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>COMBAX</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -739,32 +779,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>NCT01545011</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Effects of Inspiratory Muscle Training Combined With a Pulmonary Rehabilitation Program Versus a Program of Pulmonary Rehabilitation Alone on Dyspnea: a Randomized Trial</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -776,32 +821,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>NCT00740948</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Tolerance and Efficacy of Rituximab in Sjogren's Disease</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>TEARS</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -813,32 +863,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>NCT02109263</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Breastfeeding Versus Saccharose for Prevention of the Procedural Pain in the Newborn</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>ACTISUCROSE</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -850,32 +905,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT00560664</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT01759199</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Phase 3 Study Comparison of Autologous Chondrocyte Implantation Versus Mosaicoplasty</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cartipatch</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
+          <t>The Six-minute Stepper Test : Marker of Exercise Tolerance's Evolution During Pulmonary Rehabilitation in Patients With COPD ?</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>STEPPER</t>
+        </is>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -887,70 +947,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT01759199</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT00560664</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>The Six-minute Stepper Test : Marker of Exercise Tolerance's Evolution During Pulmonary Rehabilitation in Patients With COPD ?</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>STEPPER</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
+          <t>Phase 3 Study Comparison of Autologous Chondrocyte Implantation Versus Mosaicoplasty</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Cartipatch</t>
+        </is>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT02027181</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT01028092</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Automation of the Oxygen's Administration in Spontaneous Ventilation (FreeO2) During the Hypoxemic Acute Respiratory Distress</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FreeO2-Hypox</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
+          <t>mTor-inhibitor (EVERolimus) Based Immunosuppressive Strategies for CNI Minimisation in OLD for Old Renal Transplantation</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>EVEROLD</t>
+        </is>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -961,70 +1031,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT01028092</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT01855256</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>mTor-inhibitor (EVERolimus) Based Immunosuppressive Strategies for CNI Minimisation in OLD for Old Renal Transplantation</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EVEROLD</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
+          <t>Treatment of Hyperhidrosis With Oxybutynin: a Randomized Controlled Double Blind Against Placebo</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>H²O</t>
+        </is>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT01855256</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT02027181</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Treatment of Hyperhidrosis With Oxybutynin: a Randomized Controlled Double Blind Against Placebo</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>H²O</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
+          <t>Automation of the Oxygen's Administration in Spontaneous Ventilation (FreeO2) During the Hypoxemic Acute Respiratory Distress</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>FreeO2-Hypox</t>
+        </is>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1035,32 +1115,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT00964275</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCT01713842</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Study of Positron Emission Tomography With 18-fluorodeoxyglucose in Detecting Cancer in Patients With Idiopathic Venous Thromboembolism</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MVTEP</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
+          <t>Phase II Open 24 Weeks Study to Evaluate Effect and Safety of Tocilizumab as the First Line Therapy in Subjects With Polymyalgia Rheumatica (PMR)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>TENOR</t>
+        </is>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1072,32 +1157,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCT01713842</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NCT00964275</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Phase II Open 24 Weeks Study to Evaluate Effect and Safety of Tocilizumab as the First Line Therapy in Subjects With Polymyalgia Rheumatica (PMR)</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>TENOR</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
+          <t>Study of Positron Emission Tomography With 18-fluorodeoxyglucose in Detecting Cancer in Patients With Idiopathic Venous Thromboembolism</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>MVTEP</t>
+        </is>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1109,33 +1199,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NCT00740987</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NCT01964248</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Evaluation of Intermittent Pneumatic Compression Associated With Elastic Stockings and Anticoagulant Prophylaxis Versus Anticoagulant Prophylaxis Alone on Venous Thromboembolism Incidence in ICU Patients Without High Risk of Bleeding</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CIREA2</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
+          <t>Evaluation of Local Anesthesia Before Arterial Puncture for Blood Gas Analysis Randomized, Control Placebo Study</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>GAEL</t>
+        </is>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1146,32 +1241,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCT01964248</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NCT01694732</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Evaluation of Local Anesthesia Before Arterial Puncture for Blood Gas Analysis Randomized, Control Placebo Study</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>GAEL</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
+          <t>Efficacy of Varenicline Associated With Intensive Counselling Versus Placebo of Varenicline Associated With Intensive Counselling on Smoking Cessation at the Acute Phase of an Exacerbation of Chronic Obstructive Pulmonary Disease (COPD). A Multicenter Randomized Double-blind Trial</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>SAVE</t>
+        </is>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1183,33 +1283,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT01694732</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NCT00740987</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Efficacy of Varenicline Associated With Intensive Counselling Versus Placebo of Varenicline Associated With Intensive Counselling on Smoking Cessation at the Acute Phase of an Exacerbation of Chronic Obstructive Pulmonary Disease (COPD). A Multicenter Randomized Double-blind Trial</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SAVE</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+          <t>Evaluation of Intermittent Pneumatic Compression Associated With Elastic Stockings and Anticoagulant Prophylaxis Versus Anticoagulant Prophylaxis Alone on Venous Thromboembolism Incidence in ICU Patients Without High Risk of Bleeding</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>CIREA2</t>
+        </is>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1220,28 +1325,33 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>NCT02302313</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Pilot Study of the ANI (Analgesia Nociception Index) Validity on the Nociception Assessment in Healthy Volunteers in State of Hypnosis, Compared to Painful Numerical Verbal Scale (EVN).</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1253,69 +1363,79 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT02546401</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT02891928</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Comparison of Injection of an Analogue Bolus of Insulin Before or After the Meal in Type 1 Diabetic Patients Treated With Insulin Pump.</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>BOLUS</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
+          <t>Comparative Evaluation of Standard Wearing Shoes With Rocker Sole Shoes in Diabetic Patients With Neuropathy</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>EROD</t>
+        </is>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT02074813</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT00740883</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Effects of Inspiratory Muscle Training (IMT) on Dyspnea in COPD During Pulmonary Rehabilitation: Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>EMI II</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+          <t>Eighteen Months of Oral Anticoagulant Therapy Versus Placebo After 6 Six Months of Anticoagulation for a First Episode of Idiopathic Pulmonary Embolism: a Multicentre Double-blind Randomized Controlled Trial. "PADIS-PE" Study.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>PADIS EP</t>
+        </is>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1327,70 +1447,80 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>NCT02137694</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Comparison of the Urinary and Vaginal Auto-takings for the Research for Papillomavirus as the Examination of Orientation in the Organized Screening of the Cervical Cancer.</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>PapU-APV</t>
         </is>
       </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT02414711</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT02074813</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Validation of the French Translation of the Scale HSCL25 in the Diagnosis of Depression in Primary Care</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>HSCL25</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
+          <t>Effects of Inspiratory Muscle Training (IMT) on Dyspnea in COPD During Pulmonary Rehabilitation: Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>EMI II</t>
+        </is>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1401,70 +1531,80 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT01267981</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT02546401</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Impact of Small Bowel Preparation Using Polyethylene Glycol for Endoscopic Video-capsule (EVC)Exploration in Unexplained Gastrointestinal Bleedings</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PREPINTEST</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
+          <t>Comparison of Injection of an Analogue Bolus of Insulin Before or After the Meal in Type 1 Diabetic Patients Treated With Insulin Pump.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>BOLUS</t>
+        </is>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCT00740883</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NCT02414711</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Eighteen Months of Oral Anticoagulant Therapy Versus Placebo After 6 Six Months of Anticoagulation for a First Episode of Idiopathic Pulmonary Embolism: a Multicentre Double-blind Randomized Controlled Trial. "PADIS-PE" Study.</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PADIS EP</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
+          <t>Validation of the French Translation of the Scale HSCL25 in the Diagnosis of Depression in Primary Care</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>HSCL25</t>
+        </is>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1475,33 +1615,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT02891928</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT01267981</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Comparative Evaluation of Standard Wearing Shoes With Rocker Sole Shoes in Diabetic Patients With Neuropathy</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>EROD</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
+          <t>Impact of Small Bowel Preparation Using Polyethylene Glycol for Endoscopic Video-capsule (EVC)Exploration in Unexplained Gastrointestinal Bleedings</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>PREPINTEST</t>
+        </is>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1512,32 +1657,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCT01685580</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NCT03081403</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Evaluation of Non-Invasive Ventilation Preoperative Lung Resection Surgery</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>préOVNI</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
+          <t>Quantitative Sensory Testing in Subjects With Sensitive Skin or Not</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>SENSISKIN</t>
+        </is>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1549,32 +1699,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT02736006</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NCT02035293</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Decreases in Diffusing Lung Capacity for Carbon Monoxide (DLCO) in Occupational Divers and Their Impact on Decompression Sickness Risks</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DACODEC</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
+          <t>Frequency of Diagnostic Symptomatic Pulmonary Embolism's in Patients Hospitalized for Clinical Exacerbation of Chronic Obstructive Pulmonary Disease (COPD)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1586,70 +1741,80 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCT02302183</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT03116373</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Automatic Oxygen Administration in Spontaneous Ventilation During the Hypoxemic Acute Respiratory Distress in Infants and Children</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Infant-Free02</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
+          <t>Impact of Tracheal Tube Fixing Site on Its Mobility During Head Mobilization</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Fix-IOT</t>
+        </is>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NCT02563210</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NCT02403596</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Interrupter Technique and Plethysmography Airway Resistance Measurement: Comparison of These Two Techniques for the Diagnosis of Airway Obstruction Diagnosis and Bronchodilation Response in Children 3 to 6 Years of Age</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ARC36</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
+          <t>Study ESPER: Blood-sparing During the Placement of a Total Hip Prosthesis With the Exacyl® in Patients Treated With Rivaroxaban, Phase IV</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ESPER</t>
+        </is>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1660,32 +1825,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCT02403596</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NCT02736006</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Study ESPER: Blood-sparing During the Placement of a Total Hip Prosthesis With the Exacyl® in Patients Treated With Rivaroxaban, Phase IV</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ESPER</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
+          <t>Decreases in Diffusing Lung Capacity for Carbon Monoxide (DLCO) in Occupational Divers and Their Impact on Decompression Sickness Risks</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>DACODEC</t>
+        </is>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1697,107 +1867,122 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT03116373</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT01685580</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Impact of Tracheal Tube Fixing Site on Its Mobility During Head Mobilization</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fix-IOT</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
+          <t>Evaluation of Non-Invasive Ventilation Preoperative Lung Resection Surgery</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>préOVNI</t>
+        </is>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT00740493</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT02302183</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Eighteen Months of Oral Anticoagulant Therapy Versus Placebo After 6 Six Months of Anticoagulation for a First Episode of Idiopathic Proximal Deep Vein Thrombosis: a Multicentre Double-Blind Randomized Controlled Trial. "PADIS-TVP" Study.</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PADIS TVP</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
+          <t>Automatic Oxygen Administration in Spontaneous Ventilation During the Hypoxemic Acute Respiratory Distress in Infants and Children</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Infant-Free02</t>
+        </is>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCT03081403</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NCT02563210</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Quantitative Sensory Testing in Subjects With Sensitive Skin or Not</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>SENSISKIN</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
+          <t>Interrupter Technique and Plethysmography Airway Resistance Measurement: Comparison of These Two Techniques for the Diagnosis of Airway Obstruction Diagnosis and Bronchodilation Response in Children 3 to 6 Years of Age</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ARC36</t>
+        </is>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1808,70 +1993,80 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>NCT03218176</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Tourniquets Type Combat Application Tourniquet (CAT): Vascular Suffering According to the Proximal or Distal Location, Simple or Staggered. Study to Upper and Lower Limbs</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>GARROTS</t>
         </is>
       </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NCT02035293</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NCT00740493</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Frequency of Diagnostic Symptomatic Pulmonary Embolism's in Patients Hospitalized for Clinical Exacerbation of Chronic Obstructive Pulmonary Disease (COPD)</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>PEP</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
+          <t>Eighteen Months of Oral Anticoagulant Therapy Versus Placebo After 6 Six Months of Anticoagulation for a First Episode of Idiopathic Proximal Deep Vein Thrombosis: a Multicentre Double-Blind Randomized Controlled Trial. "PADIS-TVP" Study.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>PADIS TVP</t>
+        </is>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1882,32 +2077,37 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCT03128125</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT03209947</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Study of Gesture and Executive Functions in Children With High Intellectual Potential</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MOHPI</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
+          <t>ULnar Nerve ECHographic Observation (ULNECHO)</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>ULNECHO</t>
+        </is>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1919,32 +2119,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCT03209947</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT03128125</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ULnar Nerve ECHographic Observation (ULNECHO)</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ULNECHO</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
+          <t>Study of Gesture and Executive Functions in Children With High Intellectual Potential</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>MOHPI</t>
+        </is>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1956,32 +2161,37 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NCT03117699</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NCT03279003</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Continuation of the Exploration of the Standing Seated Passage of the Hemiplegic for the Realization of a New Transport Device</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>PADH2</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
+          <t>Study of the Efficacy and Tolerance of Light Therapy by Light-emitting Diode (LED) in Sensitive Skin</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>SENSILED</t>
+        </is>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1993,103 +2203,118 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>NCT02672384</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Chronic Periodontitis in Critically Ill Patients: Diagnosis and Epidemiology</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>CP-ICU</t>
         </is>
       </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCT02652520</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT02546830</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Evaluation of a Marine OXYgen Carrier: HEMO2Life® for hypOthermic Kidney Graft Preservation, Before Transplantation</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="b">
-        <v>0</v>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Automatic Oxygen Administration in Early and Late Postoperative Hypoxaemia Prevention After Major Abdominal and Thoracic Surgery</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>FreeO2PostOp</t>
+        </is>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT02546830</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT02652520</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Automatic Oxygen Administration in Early and Late Postoperative Hypoxaemia Prevention After Major Abdominal and Thoracic Surgery</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>FreeO2PostOp</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
+          <t>Evaluation of a Marine OXYgen Carrier: HEMO2Life® for hypOthermic Kidney Graft Preservation, Before Transplantation</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2100,70 +2325,80 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCT03279003</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT03117699</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Study of the Efficacy and Tolerance of Light Therapy by Light-emitting Diode (LED) in Sensitive Skin</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SENSILED</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
+          <t>Continuation of the Exploration of the Standing Seated Passage of the Hemiplegic for the Realization of a New Transport Device</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>PADH2</t>
+        </is>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NCT03555812</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT04096183</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Pelvic Inclination Measurement by Navigated Ultrasound</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MIPEN</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
+          <t>Evaluation of Lung Volume Under Nasal High Flow With a Time of Flight Camera</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>CamOpt</t>
+        </is>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2174,70 +2409,80 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>NCT03069560</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Short Message System (SMS) for Caregivers of Suicidal Patients to Prevent Recidivism of Suicide Attempts</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>C-SIAM</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NCT03610386</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NCT03701971</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>In Vitro Study Of the Effects of the Menthoxypropanediol, an Anti-TRPM8, in the Atopic Dermatitis Pruritus</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>DA-TRPM8</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
+          <t>Randomized Prospective Open-label Study Evaluating the Benefit of Music Therapy on Pruritus in Patients With Pruritic Dermatitis</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>PRURI-MUSIC</t>
+        </is>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2248,70 +2493,80 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NCT03260738</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NCT03610386</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Preliminary Feasibility Study of Rehabilitation by Robot "Coach" of Chronic Low Back Pain Patient</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>RCOOL</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
+          <t>In Vitro Study Of the Effects of the Menthoxypropanediol, an Anti-TRPM8, in the Atopic Dermatitis Pruritus</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>DA-TRPM8</t>
+        </is>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NCT03701971</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NCT02656667</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Randomized Prospective Open-label Study Evaluating the Benefit of Music Therapy on Pruritus in Patients With Pruritic Dermatitis</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PRURI-MUSIC</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
+          <t>Effect of Neuromuscular Electrical Stimulation Versus Cycle Ergometer Training in a Pulmonary Rehabilitation Program</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>ESNM</t>
+        </is>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2322,32 +2577,37 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>NCT03154736</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Scaling-up Packages of Interventions for Cardiovascular Disease Prevention in Selected Sites in Europe and Sub-Saharan Africa: An Implementation Research</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>SPICES_PHASE_1</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2359,32 +2619,37 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>NCT03068598</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Connected Sleep Recording Device for Suicidal Patients, Acceptability Study - Suicide Sleep Monitoring (Ssleem)</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>SSLEEM</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2396,32 +2661,37 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NCT02656667</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NCT03555812</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Effect of Neuromuscular Electrical Stimulation Versus Cycle Ergometer Training in a Pulmonary Rehabilitation Program</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ESNM</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
+          <t>Pelvic Inclination Measurement by Navigated Ultrasound</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>MIPEN</t>
+        </is>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2433,32 +2703,37 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NCT03579849</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NCT03260738</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Pulmonary Perfusion by Iodine Subtraction Mapping CT Angiography in Acute Pulmonary Embolism: a Diagnostic Accuracy Study Versus Pulmonary Perfusion SPECT.</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>PASEP</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
+          <t>Preliminary Feasibility Study of Rehabilitation by Robot "Coach" of Chronic Low Back Pain Patient</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>RCOOL</t>
+        </is>
       </c>
       <c r="H55" t="b">
         <v>0</v>
       </c>
       <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2470,107 +2745,122 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>NCT03440294</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Étude de l'Effet de la Combinaison néoprène et de l'équipement Individuel de Flottaison Sur la Fonction Respiratoire de Repos et Les capacités à l'Effort Chez Les véliplanchistes : étude WINDSURF</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>WINDSURF</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NCT04096183</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NCT03579849</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Evaluation of Lung Volume Under Nasal High Flow With a Time of Flight Camera</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>CamOpt</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
+          <t>Pulmonary Perfusion by Iodine Subtraction Mapping CT Angiography in Acute Pulmonary Embolism: a Diagnostic Accuracy Study Versus Pulmonary Perfusion SPECT.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>PASEP</t>
+        </is>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NCT02112136</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NCT02379806</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Clinical and Molecular Description of PKD1 and PKD2 Mutation Negative Carriers in Autosomal Dominant Polycystic Kidney Disease (ADPKD): The GeneQuest Study</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>GeneQuest</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
+          <t>Prevention of Symptomatic Venous Thromboembolism by Low Molecular Weight Heparin in Hospitalized Medical Patients Aged 70 Years and Older : a Randomized Placebo-Controlled Study The SYMPTOMS (SYstematic Elderly Medical Patients Thromboprophylaxis : Efficacy on Symptomatic OutcoMeS) Study</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>SYMPTOMS</t>
+        </is>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2581,28 +2871,33 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>NCT02908217</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Safety and Efficacy of tocilizuMAb Versus Placebo in Polymyalgia rHeumatica With glucocORticoid dEpendence SEMAPHORE</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2614,32 +2909,37 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NCT02379806</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NCT03914105</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Prevention of Symptomatic Venous Thromboembolism by Low Molecular Weight Heparin in Hospitalized Medical Patients Aged 70 Years and Older : a Randomized Placebo-Controlled Study The SYMPTOMS (SYstematic Elderly Medical Patients Thromboprophylaxis : Efficacy on Symptomatic OutcoMeS) Study</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>SYMPTOMS</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
+          <t>Central Neuromodulation of Pain Through Music in Healthy Subjects (DOUMU1)</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>DOUMU1</t>
+        </is>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2651,70 +2951,80 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NCT03914105</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NCT04090632</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Central Neuromodulation of Pain Through Music in Healthy Subjects (DOUMU1)</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>DOUMU1</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
+          <t>Impact of Anthropometrics Data and of Physical Activity Level in Closed kineTic Chain Upper Extremity Stability Test (CKCUEST) - EPOLTEST Study</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>EPOLTEST</t>
+        </is>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NCT04090632</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NCT02112136</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Impact of Anthropometrics Data and of Physical Activity Level in Closed kineTic Chain Upper Extremity Stability Test (CKCUEST) - EPOLTEST Study</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>EPOLTEST</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
+          <t>Clinical and Molecular Description of PKD1 and PKD2 Mutation Negative Carriers in Autosomal Dominant Polycystic Kidney Disease (ADPKD): The GeneQuest Study</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>GeneQuest</t>
+        </is>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
       <c r="I62" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2725,32 +3035,37 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>NCT02486965</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>Impact of a Specific Training Program on the Neuromodulation of Pain in Fibromyalgia Subjects</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>DOUFISPORT</t>
         </is>
       </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
       <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2762,32 +3077,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NCT04206826</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NCT03160365</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Tolerance and Efficiency of an Intrabuccal Biological Film to Enhance Oral Dryness Sensation: The "PREDELFI" Clinical Pilot Study</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>PREDELFI</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
+          <t>Innovative Planning and Guidance System for Prostate Focal Brachytherapy</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>FOCUS</t>
+        </is>
       </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2799,32 +3119,37 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NCT04341753</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NCT03930966</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Intra- and Inter-evaluator Reproducibility of Upper Limb Strength Measures With Handheld Dynamometer, in Patients With COPD</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>FORMES</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
+          <t>Study of the Association Between a Peri-traumatic Dissociation State and the Occurrence of Post-traumatic Stress Syndrome After Severe Trauma Requiring General Anesthesia</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>DIStress-AG</t>
+        </is>
       </c>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2836,32 +3161,37 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NCT03477344</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NCT04017871</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Dexmedetomidine After Cardiac Surgery for Prevention of Delirium: The Exactum Study a Randomised Double Blind Controlled Trial</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>EXACTUM</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
+          <t>Evaluation of Functional, Neuroplastic and Biomechanical Changes Induced by an Intensive, Playful Early-morning Treatment Including Lower Limbs (EARLY-HABIT-ILE) in Preschool Children With Uni and Bilateral Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>HABIT-ILE</t>
+        </is>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
       <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2873,32 +3203,37 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NCT04362800</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NCT03675061</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Functional Effects and Impact on Motor Neuronal Activity of Early and Intensive MOtrice (Hand and Arm Bimanual Intensive Therapy Including Lower Extremities: HABIT-ILE) Reeducation in Children With Pre-school Bilateral Cerebral Palsy: a Trial Multicentre Randomized Control With Medico-economic Evaluation</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MOOV</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
+          <t>Evaluation of Vaginal PAMG-1 Detection by PartoSure Test in Preterm Delivery Threat in Actual Clinical Situation: Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>PARTO-MAP</t>
+        </is>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2910,32 +3245,37 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NCT03675061</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NCT04362800</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Evaluation of Vaginal PAMG-1 Detection by PartoSure Test in Preterm Delivery Threat in Actual Clinical Situation: Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>PARTO-MAP</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
+          <t>Functional Effects and Impact on Motor Neuronal Activity of Early and Intensive MOtrice (Hand and Arm Bimanual Intensive Therapy Including Lower Extremities: HABIT-ILE) Reeducation in Children With Pre-school Bilateral Cerebral Palsy: a Trial Multicentre Randomized Control With Medico-economic Evaluation</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>MOOV</t>
+        </is>
       </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2947,32 +3287,37 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NCT02008552</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NCT04206826</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Research for Genetic Factors Involved in the Individual Susceptibility to Develop a Valvulopathy During a Medicinal Exposure in the Benfluorex.</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>MEDIAGENE</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
+          <t>Tolerance and Efficiency of an Intrabuccal Biological Film to Enhance Oral Dryness Sensation: The "PREDELFI" Clinical Pilot Study</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>PREDELFI</t>
+        </is>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2984,32 +3329,37 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NCT04736511</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NCT02008552</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Study of the Influence of Proprioceptive Reweighting Ability on the Lower-extremity Biomechanics During Functional Tasks and Unplanned Sidestep Cutting Manoeuvre</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>NEURIBIO</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
+          <t>Research for Genetic Factors Involved in the Individual Susceptibility to Develop a Valvulopathy During a Medicinal Exposure in the Benfluorex.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>MEDIAGENE</t>
+        </is>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3021,144 +3371,164 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NCT03930966</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NCT04341753</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Study of the Association Between a Peri-traumatic Dissociation State and the Occurrence of Post-traumatic Stress Syndrome After Severe Trauma Requiring General Anesthesia</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>DIStress-AG</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
+          <t>Intra- and Inter-evaluator Reproducibility of Upper Limb Strength Measures With Handheld Dynamometer, in Patients With COPD</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>FORMES</t>
+        </is>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NCT03160365</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NCT03477344</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Innovative Planning and Guidance System for Prostate Focal Brachytherapy</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>FOCUS</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
+          <t>Dexmedetomidine After Cardiac Surgery for Prevention of Delirium: The Exactum Study a Randomised Double Blind Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>EXACTUM</t>
+        </is>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NCT04017871</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NCT04736511</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Evaluation of Functional, Neuroplastic and Biomechanical Changes Induced by an Intensive, Playful Early-morning Treatment Including Lower Limbs (EARLY-HABIT-ILE) in Preschool Children With Uni and Bilateral Cerebral Palsy</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>HABIT-ILE</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
+          <t>Study of the Influence of Proprioceptive Reweighting Ability on the Lower-extremity Biomechanics During Functional Tasks and Unplanned Sidestep Cutting Manoeuvre</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>NEURIBIO</t>
+        </is>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NCT03801304</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NCT04180436</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Open Label Phase II Trial to Evaluate Safety and Efficacy of Vinorelbine With Metronomic Administration in Combination With Atezolizumab as Second-line Treatment for Patients With Stage IV Non-small Cell Lung Cancer</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>VinMetAtezo</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
+          <t>Pharmacokinetics and Pharmacodynamics of rivAroxaban After Bariatric Surgery and in mORBid Obesity</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>ABSORB</t>
+        </is>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3169,70 +3539,80 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NCT04180436</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NCT02410304</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Pharmacokinetics and Pharmacodynamics of rivAroxaban After Bariatric Surgery and in mORBid Obesity</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ABSORB</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
+          <t>Pragmatic Study Comparing the Clinical Evlauation Methods ( C) and / or Ultrasound Method ( B or D) in Rheumatoid Arthritis (RA) to Adapt Treatment</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>BCD</t>
+        </is>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NCT04727879</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NCT01848639</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Beyond Analysis Of Blood Sample, to Approach Immunopathology of Polymyalgia Rheumatica on Shoulder Bursae's Biopsies: the BAOBAB Study</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>BAOBAB</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
+          <t>ALdosterone Antagonist Chronic HEModialysis Interventional Survival Trial (ALCHEMIST), Phase III b</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>ALCHEMIST</t>
+        </is>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3243,32 +3623,37 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NCT01848639</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NCT03801304</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>ALdosterone Antagonist Chronic HEModialysis Interventional Survival Trial (ALCHEMIST), Phase III b</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ALCHEMIST</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
+          <t>Open Label Phase II Trial to Evaluate Safety and Efficacy of Vinorelbine With Metronomic Administration in Combination With Atezolizumab as Second-line Treatment for Patients With Stage IV Non-small Cell Lung Cancer</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>VinMetAtezo</t>
+        </is>
       </c>
       <c r="H77" t="b">
         <v>1</v>
       </c>
       <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3280,32 +3665,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NCT04506125</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NCT03886064</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Liberal Versus Restrictive Transfusion Threshold in High-risk Oncologic surgerY: a Multicenter, Randomized, Controlled, Pilot Study</t>
-        </is>
-      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>LIBERTY1</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
+          <t>Scaling-up Packages of Interventions for Cardiovascular Disease Prevention in Selected Sites in Europe and Sub-Saharan Africa. SPICES Study Implementation Phase</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Spices_phase_2</t>
+        </is>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
       <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3317,32 +3707,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NCT02410304</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NCT04727879</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Pragmatic Study Comparing the Clinical Evlauation Methods ( C) and / or Ultrasound Method ( B or D) in Rheumatoid Arthritis (RA) to Adapt Treatment</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>BCD</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
+          <t>Beyond Analysis Of Blood Sample, to Approach Immunopathology of Polymyalgia Rheumatica on Shoulder Bursae's Biopsies: the BAOBAB Study</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>BAOBAB</t>
+        </is>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3354,32 +3749,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NCT03886064</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NCT04506125</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Scaling-up Packages of Interventions for Cardiovascular Disease Prevention in Selected Sites in Europe and Sub-Saharan Africa. SPICES Study Implementation Phase</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Spices_phase_2</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
+          <t>Liberal Versus Restrictive Transfusion Threshold in High-risk Oncologic surgerY: a Multicenter, Randomized, Controlled, Pilot Study</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>LIBERTY1</t>
+        </is>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
       <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3391,32 +3791,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NCT04181710</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NCT03285438</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Evaluation of a Marine OXYgen Carrier for Organ Preservation : a Multicenter Randomized Study Evaluating the Efficacy of HEMO2life® Versus Standard of Care in Renal Transplantation</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>OXYOP 2</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
+          <t>REduced Dose Versus Full-dose of Direct Oral Anticoagulant After uNprOvoked Venous thromboEmbolism. The RENOVE Open-label, Randomized, Controlled Trial.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>RENOVE</t>
+        </is>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
       <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3428,32 +3833,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NCT04027101</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NCT04181710</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>BAriCitinib Healing Effect in earLy pOlymyalgia Rheumatica (BACHELOR Study)</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>BACHELOR</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
+          <t>Evaluation of a Marine OXYgen Carrier for Organ Preservation : a Multicenter Randomized Study Evaluating the Efficacy of HEMO2life® Versus Standard of Care in Renal Transplantation</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>OXYOP 2</t>
+        </is>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3465,32 +3875,37 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NCT03285438</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NCT04027101</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>REduced Dose Versus Full-dose of Direct Oral Anticoagulant After uNprOvoked Venous thromboEmbolism. The RENOVE Open-label, Randomized, Controlled Trial.</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>RENOVE</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
+          <t>BAriCitinib Healing Effect in earLy pOlymyalgia Rheumatica (BACHELOR Study)</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>BACHELOR</t>
+        </is>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
       <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3502,32 +3917,37 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NCT04179539</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>NCT03461900</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Gallium68 Ventilation/perfusion PET/CT for Pulmonary Embolism Diagnosis: a Diagnostic Accuracy Study Vs CT Pulmonary Angiography</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>PETEP</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
+          <t>Guided Fluid-balance Optimization With Mini-fluid chALlenge During Septic Shock: A Multicenter, Stepped Wedge Cluster Randomized Trial</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>GOAL</t>
+        </is>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3539,32 +3959,37 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NCT05775562</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>NCT04609956</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Early Pulmonary Effects of Excursion Deep Diving with Closed-circuit Gas Recycling: SPIDD Study</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>SPIDD</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
+          <t>Comparative Randomized Study of Virtual Reality Technology on Pain Perception and Anxiety Levels in Adolescents and Young Adults During Third Molar Germ Avulsion Surgery</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>VIDAMO</t>
+        </is>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3576,32 +4001,37 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NCT04253275</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NCT04848194</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Identification of Biomarkers in Ischemic Stroke - Clinical Trial</t>
-        </is>
-      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>IBIS-CT</t>
-        </is>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
+          <t>Pleiotropic Role of TRPV1 in Psoriasis Inflammation</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>TRIP</t>
+        </is>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
       <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3613,32 +4043,37 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NCT03461900</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>NCT04179539</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Guided Fluid-balance Optimization With Mini-fluid chALlenge During Septic Shock: A Multicenter, Stepped Wedge Cluster Randomized Trial</t>
-        </is>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>GOAL</t>
-        </is>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
+          <t>Gallium68 Ventilation/perfusion PET/CT for Pulmonary Embolism Diagnosis: a Diagnostic Accuracy Study Vs CT Pulmonary Angiography</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>PETEP</t>
+        </is>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
       <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3650,32 +4085,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NCT04609956</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NCT05775562</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Comparative Randomized Study of Virtual Reality Technology on Pain Perception and Anxiety Levels in Adolescents and Young Adults During Third Molar Germ Avulsion Surgery</t>
-        </is>
-      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>VIDAMO</t>
-        </is>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
+          <t>Early Pulmonary Effects of Excursion Deep Diving with Closed-circuit Gas Recycling: SPIDD Study</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>SPIDD</t>
+        </is>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
       <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3687,32 +4127,37 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NCT04848194</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NCT04253275</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Pleiotropic Role of TRPV1 in Psoriasis Inflammation</t>
-        </is>
-      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>TRIP</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
+          <t>Identification of Biomarkers in Ischemic Stroke - Clinical Trial</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>IBIS-CT</t>
+        </is>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
       <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3724,28 +4169,33 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>NCT00744900</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
         <is>
           <t>A Phase II Trial With Pemetrexed Plus Cisplatin as First Line Chemotherapy for Advanced Non - Small Cell Lung Cancer (NSCLC) Patients With Measurable Asymptomatic Brain Metastasis (GFPC 07-01/METAL).</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>GFPC 07-01</t>
         </is>
       </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
       <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/03evbwn87/liste_essais_cliniques_identifies_03evbwn87.xlsx
+++ b/publipostage/03evbwn87/liste_essais_cliniques_identifies_03evbwn87.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -602,6 +617,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -644,6 +664,11 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -686,6 +711,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -728,6 +758,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -770,6 +805,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -812,6 +852,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -854,6 +899,11 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -896,6 +946,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -938,6 +993,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -980,6 +1040,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1022,6 +1087,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1064,6 +1134,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1106,6 +1181,11 @@
       <c r="J16" t="b">
         <v>1</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1148,6 +1228,11 @@
       <c r="J17" t="b">
         <v>1</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1190,6 +1275,11 @@
       <c r="J18" t="b">
         <v>1</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1232,6 +1322,11 @@
       <c r="J19" t="b">
         <v>1</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1274,6 +1369,11 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1316,6 +1416,11 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1354,6 +1459,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1396,6 +1506,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1438,6 +1553,11 @@
       <c r="J24" t="b">
         <v>1</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1480,6 +1600,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1522,6 +1647,11 @@
       <c r="J26" t="b">
         <v>1</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1564,6 +1694,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1606,6 +1741,11 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1648,6 +1788,11 @@
       <c r="J29" t="b">
         <v>1</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1690,6 +1835,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1732,6 +1882,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1774,6 +1929,11 @@
       <c r="J32" t="b">
         <v>1</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1816,6 +1976,11 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1858,6 +2023,11 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1900,6 +2070,11 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1942,6 +2117,11 @@
       <c r="J36" t="b">
         <v>1</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1984,6 +2164,11 @@
       <c r="J37" t="b">
         <v>1</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2026,6 +2211,11 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2068,6 +2258,11 @@
       <c r="J39" t="b">
         <v>1</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2110,6 +2305,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2152,6 +2352,11 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2194,6 +2399,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2236,6 +2446,11 @@
       <c r="J43" t="b">
         <v>0</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2278,6 +2493,11 @@
       <c r="J44" t="b">
         <v>1</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2316,6 +2536,11 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2358,6 +2583,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2400,6 +2630,11 @@
       <c r="J47" t="b">
         <v>1</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2442,6 +2677,11 @@
       <c r="J48" t="b">
         <v>0</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2484,6 +2724,11 @@
       <c r="J49" t="b">
         <v>1</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2526,6 +2771,11 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2568,6 +2818,11 @@
       <c r="J51" t="b">
         <v>0</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2610,6 +2865,11 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2652,6 +2912,11 @@
       <c r="J53" t="b">
         <v>0</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2694,6 +2959,11 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2736,6 +3006,11 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2778,6 +3053,11 @@
       <c r="J56" t="b">
         <v>0</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2820,6 +3100,11 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2862,6 +3147,11 @@
       <c r="J58" t="b">
         <v>0</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2900,6 +3190,11 @@
       <c r="J59" t="b">
         <v>1</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2942,6 +3237,11 @@
       <c r="J60" t="b">
         <v>0</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2984,6 +3284,11 @@
       <c r="J61" t="b">
         <v>0</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3026,6 +3331,11 @@
       <c r="J62" t="b">
         <v>1</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3068,6 +3378,11 @@
       <c r="J63" t="b">
         <v>1</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3110,6 +3425,11 @@
       <c r="J64" t="b">
         <v>0</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3152,6 +3472,11 @@
       <c r="J65" t="b">
         <v>0</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3194,6 +3519,11 @@
       <c r="J66" t="b">
         <v>1</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3236,6 +3566,11 @@
       <c r="J67" t="b">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3278,6 +3613,11 @@
       <c r="J68" t="b">
         <v>0</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3320,6 +3660,11 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3362,6 +3707,11 @@
       <c r="J70" t="b">
         <v>0</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3404,6 +3754,11 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3446,6 +3801,11 @@
       <c r="J72" t="b">
         <v>1</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3488,6 +3848,11 @@
       <c r="J73" t="b">
         <v>0</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3530,6 +3895,11 @@
       <c r="J74" t="b">
         <v>0</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3572,6 +3942,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3614,6 +3989,11 @@
       <c r="J76" t="b">
         <v>1</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3656,6 +4036,11 @@
       <c r="J77" t="b">
         <v>1</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3698,6 +4083,11 @@
       <c r="J78" t="b">
         <v>1</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3740,6 +4130,11 @@
       <c r="J79" t="b">
         <v>0</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3782,6 +4177,11 @@
       <c r="J80" t="b">
         <v>1</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3824,6 +4224,11 @@
       <c r="J81" t="b">
         <v>0</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3866,6 +4271,11 @@
       <c r="J82" t="b">
         <v>0</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3908,6 +4318,11 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3950,6 +4365,11 @@
       <c r="J84" t="b">
         <v>0</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3992,6 +4412,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4034,6 +4459,11 @@
       <c r="J86" t="b">
         <v>0</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4076,6 +4506,11 @@
       <c r="J87" t="b">
         <v>0</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4118,6 +4553,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4159,6 +4599,11 @@
       </c>
       <c r="J89" t="b">
         <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -4197,6 +4642,11 @@
       </c>
       <c r="J90" t="b">
         <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
       </c>
     </row>
   </sheetData>
